--- a/data/trans_bre/P68-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P68-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P68-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P68-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,74%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,56; -3,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,39; 9,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,45; 1,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 26,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,64; -13,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,54; 146,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,25; 15,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,61; 1050,45</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,84%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,22; 4,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,26; 8,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,56; -0,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,63; 7,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,69; 16,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,5; 43,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,73; -0,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,7; 51,11</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; 7,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 9,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,56; 4,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,32; 6,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,16; 34,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,28; 44,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,02; 20,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,68; 37,64</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,54%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,16; 4,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,67; 0,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,67; 4,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,34; 19,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,0; 21,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,26; 3,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,17; 21,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,91; 123,51</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,14%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,99; 5,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,54; 20,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,79; 15,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 10,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,74; 23,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,28; 90,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,85; 71,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,81; 53,94</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-16,3</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,4</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,28%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-65,81; 0,0</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-79,11; 0,0</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-19,16; 18,81</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,16; 308,39</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,55%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,93%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; -0,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 3,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; -0,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 8,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,05; -1,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,53; 15,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,19; 0,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,97; 46,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P68-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P68-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>145,74%</t>
+          <t>171,05%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 26,2</t>
+          <t>-0,32; 26,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 1050,45</t>
+          <t>-27,53; 1271,39</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>-15,98%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 7,21</t>
+          <t>-12,81; 4,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 51,11</t>
+          <t>-63,07; 27,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,09%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 6,68</t>
+          <t>-4,31; 6,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 37,64</t>
+          <t>-18,81; 37,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,15</t>
+          <t>19,89</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>55,54%</t>
+          <t>135,89%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 19,45</t>
+          <t>9,75; 37,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,91; 123,51</t>
+          <t>39,77; 530,1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>18,16%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 10,46</t>
+          <t>-2,4; 10,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 53,94</t>
+          <t>-9,13; 54,04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1130,32 +1130,32 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-31,4</t>
+          <t>-36,21</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>-4,85%</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,81; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,11; 0,0</t>
+          <t>-78,64; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 18,81</t>
+          <t>-19,86; 18,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-73,16; 308,39</t>
+          <t>-72,54; 317,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-15,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-3,39</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-3,86</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7,02</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-13,61%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-2,63%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-15,55%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-6,81; -0,19</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-3,79; 3,47</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-7,7; -0,05</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 8,36</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 14,79</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-26,05; -1,01</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-15,53; 15,64</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-28,19; 0,21</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>7,97; 46,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11,88; 113,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P68-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P68-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,56; -3,32</t>
+          <t>-21,05; -3,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 9,5</t>
+          <t>-11,55; 7,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 1,61</t>
+          <t>-21,54; 1,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 26,94</t>
+          <t>-1,71; 27,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-66,64; -13,56</t>
+          <t>-67,72; -12,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-62,54; 146,62</t>
+          <t>-66,19; 119,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-72,25; 15,68</t>
+          <t>-73,1; 12,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 1271,39</t>
+          <t>-32,11; 1446,23</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 4,07</t>
+          <t>-7,79; 4,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 8,42</t>
+          <t>-5,18; 8,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,56; -0,15</t>
+          <t>-13,74; -0,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 4,07</t>
+          <t>-12,97; 4,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 16,64</t>
+          <t>-27,87; 20,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 43,35</t>
+          <t>-20,71; 45,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,73; -0,72</t>
+          <t>-50,39; -1,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,07; 27,37</t>
+          <t>-62,13; 30,44</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 7,08</t>
+          <t>-5,82; 6,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 9,21</t>
+          <t>-4,77; 9,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 4,46</t>
+          <t>-8,27; 4,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 6,45</t>
+          <t>-4,45; 6,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 34,76</t>
+          <t>-23,47; 29,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 44,77</t>
+          <t>-18,25; 44,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 20,35</t>
+          <t>-30,0; 18,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 37,06</t>
+          <t>-18,85; 34,56</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 4,8</t>
+          <t>-10,12; 4,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 0,79</t>
+          <t>-13,86; 0,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 4,87</t>
+          <t>-9,65; 5,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,75; 37,91</t>
+          <t>9,49; 39,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,0; 21,17</t>
+          <t>-37,47; 20,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,26; 3,9</t>
+          <t>-49,45; 1,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,17; 21,98</t>
+          <t>-34,2; 27,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,77; 530,1</t>
+          <t>39,33; 548,82</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 5,31</t>
+          <t>-18,11; 6,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 20,87</t>
+          <t>-7,11; 21,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 15,85</t>
+          <t>-9,62; 13,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 10,49</t>
+          <t>-2,28; 10,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-57,74; 23,66</t>
+          <t>-57,61; 29,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 90,18</t>
+          <t>-23,17; 88,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 71,81</t>
+          <t>-30,43; 58,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 54,04</t>
+          <t>-8,97; 54,84</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,64; 0,0</t>
+          <t>-80,26; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 18,09</t>
+          <t>-22,14; 16,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,54; 317,14</t>
+          <t>-76,88; 297,81</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -0,19</t>
+          <t>-6,32; 0,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,47</t>
+          <t>-4,3; 2,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,7; -0,05</t>
+          <t>-7,44; -0,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,26; 14,79</t>
+          <t>2,1; 14,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,05; -1,01</t>
+          <t>-24,28; 1,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 15,64</t>
+          <t>-17,41; 12,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 0,21</t>
+          <t>-27,73; -1,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,88; 113,38</t>
+          <t>10,36; 105,51</t>
         </is>
       </c>
     </row>
